--- a/blackJackInfo.xlsx
+++ b/blackJackInfo.xlsx
@@ -84,13 +84,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n" s="0">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="B2" t="n" s="0">
-        <v>11.0</v>
+        <v>7.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>90.0</v>
+        <v>100.0</v>
       </c>
     </row>
   </sheetData>

--- a/blackJackInfo.xlsx
+++ b/blackJackInfo.xlsx
@@ -84,13 +84,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n" s="0">
-        <v>3.0</v>
+        <v>12.0</v>
       </c>
       <c r="B2" t="n" s="0">
-        <v>7.0</v>
+        <v>110.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>100.0</v>
+        <v>200.0</v>
       </c>
     </row>
   </sheetData>
